--- a/ExeleExtantion/bin/Debug/Temp.xlsx
+++ b/ExeleExtantion/bin/Debug/Temp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>население 100</t>
   </si>
@@ -49,13 +49,16 @@
   </si>
   <si>
     <t>разница</t>
+  </si>
+  <si>
+    <t>Касса</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +83,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,18 +99,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -174,52 +177,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,9 +193,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,42 +205,12 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -290,19 +220,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,43 +507,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="3" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -630,129 +546,95 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="5"/>
+      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="5"/>
+    <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="7">
-        <f>SUM(B4:I4)</f>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="6">
+        <f>SUM(B4:G4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="12">
-        <f>E4+F4</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14">
-        <f>G4+H4+I4</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="7"/>
+    <row r="5" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="5">
+        <f>SUM(B5:G5)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="6">
-        <f>SUM(B6:I6)</f>
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" ref="B6:G6" si="0">B4-B5</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <f>H5-H4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6">
-        <f>B4-B6</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <f>C4-C6</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <f>D4-D6</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="19">
-        <f>E5-E6</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="23">
-        <f>G5-G6</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="8">
-        <f>J6-J4</f>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="7" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:I3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
